--- a/lectures/Lecture_2/Cartoon_Example_NBC.xlsx
+++ b/lectures/Lecture_2/Cartoon_Example_NBC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gui/Google Drive/_Teaching/Teach_BigData 2022/Big-Data-Module-1/lectures/Lecture_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B3EA49-796B-A747-9231-C99583AB7040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A675B9-C99E-F440-A159-8FB4766EBD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33540" windowHeight="19940" tabRatio="950" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="33540" windowHeight="19940" tabRatio="950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.NAIVE BAYES 1 post" sheetId="5" r:id="rId1"/>
@@ -163,7 +163,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -623,10 +623,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -638,7 +638,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -649,7 +649,7 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1584,8 +1584,8 @@
   </sheetPr>
   <dimension ref="A1:V72"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1594,10 +1594,9 @@
     <col min="2" max="2" width="59.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="16.5" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="7.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.83203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.1640625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -1776,13 +1775,11 @@
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="25" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G25" s="25" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="F25" s="25">
+        <v>1.4306151645207439E-3</v>
+      </c>
+      <c r="G25" s="25">
+        <v>3.3311125916055963E-4</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="15" t="s">
@@ -1887,17 +1884,17 @@
       <c r="B31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="12" t="e">
+      <c r="F31" s="12">
         <f>F21*F25/($F$21*$F$25+$G$21*$G$25 )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G31" s="12" t="e">
+        <v>0.81113212645231014</v>
+      </c>
+      <c r="G31" s="12">
         <f>G21*G25/($F$21*$F$25+$G$21*$G$25 )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I31" s="24" t="e">
+        <v>0.18886787354768983</v>
+      </c>
+      <c r="I31" s="24">
         <f>SUM(F31:G31)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1989,7 +1986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0EDA02-A8D2-A742-AFD5-85A9F5A8EAB1}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
